--- a/va_facility_data_2025-02-20/Warrensburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Warrensburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Warrensburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Warrensburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0ce0bb7aeeca497f8d1370360995107c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rae5ff95f21d640358eb111ac3d59df8c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4ab2f33be8dc460eb2492fcf610c27c7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9f3379b93a6444e9aa9a593ef4a69522"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R49b55e69836c4a3bac0c7b52b5ede30f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7ac04d39104049e091beace4fc8476cd"/>
   </x:sheets>
 </x:workbook>
 </file>
